--- a/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA77955-30BF-4409-8C50-5842B9C5A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC39BAB-0175-4808-B020-E7075975E0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3421642F-432B-4A4F-A23A-F308C51BDAE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA8E5170-2F8F-4997-BE8A-D62A3C8D6D86}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="379">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>28,11%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>6,76%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -164,997 +164,1012 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>10,41%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>8,67%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>8,89%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1569,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A98DD-1850-4F1F-BFC3-35CDA83589F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFCC341-DA4A-4D21-8062-88DD03C4A4EA}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1897,13 +1912,13 @@
         <v>19726</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1912,13 +1927,13 @@
         <v>12322</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1927,19 +1942,19 @@
         <v>32048</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1948,13 +1963,13 @@
         <v>1679</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1963,13 +1978,13 @@
         <v>4983</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1978,13 +1993,13 @@
         <v>6662</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +2014,13 @@
         <v>88947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -2014,13 +2029,13 @@
         <v>91651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -2029,18 +2044,18 @@
         <v>180597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2052,13 +2067,13 @@
         <v>106024</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -2067,13 +2082,13 @@
         <v>109924</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -2082,13 +2097,13 @@
         <v>215948</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2118,13 @@
         <v>58131</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -2118,13 +2133,13 @@
         <v>62347</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -2133,13 +2148,13 @@
         <v>120477</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2169,13 @@
         <v>39372</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2169,13 +2184,13 @@
         <v>28853</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2184,13 +2199,13 @@
         <v>68224</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2220,13 @@
         <v>68596</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2220,13 +2235,13 @@
         <v>47570</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -2235,13 +2250,13 @@
         <v>116166</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2271,13 @@
         <v>61869</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -2271,13 +2286,13 @@
         <v>54101</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
@@ -2286,19 +2301,19 @@
         <v>115970</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>14</v>
@@ -2307,13 +2322,13 @@
         <v>20480</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2322,13 +2337,13 @@
         <v>22465</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2337,13 +2352,13 @@
         <v>42946</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2373,13 @@
         <v>354472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>299</v>
@@ -2373,13 +2388,13 @@
         <v>325259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>549</v>
@@ -2388,18 +2403,18 @@
         <v>679731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2411,13 +2426,13 @@
         <v>148774</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -2426,13 +2441,13 @@
         <v>89682</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>282</v>
@@ -2441,13 +2456,13 @@
         <v>238457</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2477,13 @@
         <v>72130</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -2477,13 +2492,13 @@
         <v>65495</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -2492,13 +2507,13 @@
         <v>137625</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2528,13 @@
         <v>69311</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -2528,13 +2543,13 @@
         <v>42829</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -2543,13 +2558,13 @@
         <v>112139</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2579,13 @@
         <v>93540</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -2579,13 +2594,13 @@
         <v>62737</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -2594,13 +2609,13 @@
         <v>156277</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,10 +2630,10 @@
         <v>62419</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>164</v>
@@ -2633,10 +2648,10 @@
         <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -2645,19 +2660,19 @@
         <v>136456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>31</v>
@@ -2666,13 +2681,13 @@
         <v>30295</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2681,13 +2696,13 @@
         <v>41357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2696,13 +2711,13 @@
         <v>71652</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2732,13 @@
         <v>476469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>546</v>
@@ -2732,13 +2747,13 @@
         <v>376136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1016</v>
@@ -2747,18 +2762,18 @@
         <v>852606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2770,13 +2785,13 @@
         <v>221001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -2785,13 +2800,13 @@
         <v>133548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>366</v>
@@ -2800,13 +2815,13 @@
         <v>354549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2836,13 @@
         <v>118516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -2836,13 +2851,13 @@
         <v>87698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -2851,13 +2866,13 @@
         <v>206215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2887,13 @@
         <v>55561</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -2887,13 +2902,13 @@
         <v>54858</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M27" s="7">
         <v>146</v>
@@ -2902,13 +2917,13 @@
         <v>110419</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2938,13 @@
         <v>90439</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>106</v>
@@ -2938,13 +2953,13 @@
         <v>67379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -2953,13 +2968,13 @@
         <v>157818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2989,13 @@
         <v>59707</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -2989,13 +3004,13 @@
         <v>72431</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>158</v>
@@ -3004,19 +3019,19 @@
         <v>132138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -3025,13 +3040,13 @@
         <v>32738</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3040,13 +3055,13 @@
         <v>50366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -3055,13 +3070,13 @@
         <v>83105</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3091,13 @@
         <v>577963</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>711</v>
@@ -3091,13 +3106,13 @@
         <v>466281</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>1234</v>
@@ -3106,18 +3121,18 @@
         <v>1044244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3129,13 +3144,13 @@
         <v>98269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H32" s="7">
         <v>91</v>
@@ -3144,13 +3159,13 @@
         <v>50588</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M32" s="7">
         <v>202</v>
@@ -3159,13 +3174,13 @@
         <v>148857</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3195,13 @@
         <v>64046</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -3195,13 +3210,13 @@
         <v>45624</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M33" s="7">
         <v>153</v>
@@ -3210,13 +3225,13 @@
         <v>109671</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3246,13 @@
         <v>35558</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>49</v>
@@ -3246,13 +3261,13 @@
         <v>27100</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -3261,13 +3276,13 @@
         <v>62658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3297,13 @@
         <v>52650</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3297,13 +3312,13 @@
         <v>41256</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M35" s="7">
         <v>128</v>
@@ -3312,13 +3327,13 @@
         <v>93906</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3348,13 @@
         <v>48234</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -3348,13 +3363,13 @@
         <v>33978</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -3363,19 +3378,19 @@
         <v>82212</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>23</v>
@@ -3384,13 +3399,13 @@
         <v>22135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -3399,13 +3414,13 @@
         <v>26595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M37" s="7">
         <v>66</v>
@@ -3414,13 +3429,13 @@
         <v>48730</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3450,13 @@
         <v>320891</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="7">
         <v>387</v>
@@ -3450,13 +3465,13 @@
         <v>225141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>744</v>
@@ -3465,18 +3480,18 @@
         <v>546032</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3488,13 +3503,13 @@
         <v>10027</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H39" s="7">
         <v>12</v>
@@ -3503,13 +3518,13 @@
         <v>6254</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M39" s="7">
         <v>26</v>
@@ -3518,13 +3533,13 @@
         <v>16281</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3554,13 @@
         <v>3351</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -3554,13 +3569,13 @@
         <v>4080</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -3569,13 +3584,13 @@
         <v>7431</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3605,13 @@
         <v>2482</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3605,13 +3620,13 @@
         <v>711</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3620,13 +3635,13 @@
         <v>3193</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3656,13 @@
         <v>3173</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3656,13 +3671,13 @@
         <v>1135</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -3671,13 +3686,13 @@
         <v>4308</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -3707,13 +3722,13 @@
         <v>2319</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3722,19 +3737,19 @@
         <v>2319</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
@@ -3743,13 +3758,13 @@
         <v>740</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -3758,13 +3773,13 @@
         <v>3918</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -3773,13 +3788,13 @@
         <v>4659</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3809,13 @@
         <v>19773</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
@@ -3809,13 +3824,13 @@
         <v>18418</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M45" s="7">
         <v>65</v>
@@ -3824,13 +3839,13 @@
         <v>38191</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3862,13 @@
         <v>607343</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H46" s="7">
         <v>543</v>
@@ -3862,13 +3877,13 @@
         <v>420735</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M46" s="7">
         <v>1071</v>
@@ -3877,13 +3892,13 @@
         <v>1028078</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3913,13 @@
         <v>341176</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H47" s="7">
         <v>423</v>
@@ -3913,13 +3928,13 @@
         <v>274469</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M47" s="7">
         <v>759</v>
@@ -3928,13 +3943,13 @@
         <v>615644</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3964,13 @@
         <v>208300</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="H48" s="7">
         <v>243</v>
@@ -3964,13 +3979,13 @@
         <v>171741</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="M48" s="7">
         <v>454</v>
@@ -3979,13 +3994,13 @@
         <v>380041</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4015,13 @@
         <v>321672</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>193</v>
+        <v>357</v>
       </c>
       <c r="H49" s="7">
         <v>319</v>
@@ -4015,13 +4030,13 @@
         <v>237070</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>66</v>
+        <v>358</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M49" s="7">
         <v>608</v>
@@ -4030,13 +4045,13 @@
         <v>558742</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4066,13 @@
         <v>251955</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="H50" s="7">
         <v>314</v>
@@ -4066,13 +4081,13 @@
         <v>249187</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M50" s="7">
         <v>526</v>
@@ -4081,19 +4096,19 @@
         <v>501143</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>100</v>
@@ -4102,13 +4117,13 @@
         <v>108068</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H51" s="7">
         <v>193</v>
@@ -4117,13 +4132,13 @@
         <v>149685</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="M51" s="7">
         <v>293</v>
@@ -4132,13 +4147,13 @@
         <v>257753</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>372</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4168,13 @@
         <v>1838515</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H52" s="7">
         <v>2035</v>
@@ -4168,13 +4183,13 @@
         <v>1502886</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M52" s="7">
         <v>3711</v>
@@ -4183,18 +4198,18 @@
         <v>3341402</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC39BAB-0175-4808-B020-E7075975E0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA597E5E-9AE6-49F3-A9B0-AE145B25A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA8E5170-2F8F-4997-BE8A-D62A3C8D6D86}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB398E73-E656-464B-A78C-E19B344E327E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFCC341-DA4A-4D21-8062-88DD03C4A4EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D685802-F3A4-420E-B2B3-200F4FA745CB}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA597E5E-9AE6-49F3-A9B0-AE145B25A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C79575-0DB7-4245-9DDE-4C1D5316892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB398E73-E656-464B-A78C-E19B344E327E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2920EF04-2E3D-4F59-99B4-FD9F2EAEA96E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="374">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,1102 +74,1087 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>Con menos frecuencia /raramente</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>Con menos frecuencia /raramente</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>16,39%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>8,67%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>8,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1584,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D685802-F3A4-420E-B2B3-200F4FA745CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E83AC-E662-432F-934F-73A6770A9B4B}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1912,13 +1897,13 @@
         <v>19726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1927,13 +1912,13 @@
         <v>12322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1942,19 +1927,19 @@
         <v>32048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1963,13 +1948,13 @@
         <v>1679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1978,13 +1963,13 @@
         <v>4983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1993,13 +1978,13 @@
         <v>6662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +1999,13 @@
         <v>88947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -2029,13 +2014,13 @@
         <v>91651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -2044,18 +2029,18 @@
         <v>180597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2067,13 +2052,13 @@
         <v>106024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -2082,13 +2067,13 @@
         <v>109924</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -2097,13 +2082,13 @@
         <v>215948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2103,13 @@
         <v>58131</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -2133,13 +2118,13 @@
         <v>62347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -2148,13 +2133,13 @@
         <v>120477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2154,13 @@
         <v>39372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2184,13 +2169,13 @@
         <v>28853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2199,13 +2184,13 @@
         <v>68224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2205,13 @@
         <v>68596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2235,13 +2220,13 @@
         <v>47570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -2250,13 +2235,13 @@
         <v>116166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2256,13 @@
         <v>61869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -2286,13 +2271,13 @@
         <v>54101</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
@@ -2301,19 +2286,19 @@
         <v>115970</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>14</v>
@@ -2322,13 +2307,13 @@
         <v>20480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2337,13 +2322,13 @@
         <v>22465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2352,13 +2337,13 @@
         <v>42946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2358,13 @@
         <v>354472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>299</v>
@@ -2388,13 +2373,13 @@
         <v>325259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>549</v>
@@ -2403,18 +2388,18 @@
         <v>679731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2426,13 +2411,13 @@
         <v>148774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
@@ -2441,13 +2426,13 @@
         <v>89682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>282</v>
@@ -2456,13 +2441,13 @@
         <v>238457</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2462,13 @@
         <v>72130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -2492,13 +2477,13 @@
         <v>65495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -2507,13 +2492,13 @@
         <v>137625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2513,13 @@
         <v>69311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -2543,13 +2528,13 @@
         <v>42829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -2558,13 +2543,13 @@
         <v>112139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2564,13 @@
         <v>93540</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -2594,13 +2579,13 @@
         <v>62737</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -2609,13 +2594,13 @@
         <v>156277</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,10 +2615,10 @@
         <v>62419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>164</v>
@@ -2648,10 +2633,10 @@
         <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -2660,19 +2645,19 @@
         <v>136456</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>31</v>
@@ -2681,13 +2666,13 @@
         <v>30295</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2696,13 +2681,13 @@
         <v>41357</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2711,13 +2696,13 @@
         <v>71652</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2717,13 @@
         <v>476469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>546</v>
@@ -2747,13 +2732,13 @@
         <v>376136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1016</v>
@@ -2762,18 +2747,18 @@
         <v>852606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2785,13 +2770,13 @@
         <v>221001</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -2800,13 +2785,13 @@
         <v>133548</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>366</v>
@@ -2815,13 +2800,13 @@
         <v>354549</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2821,13 @@
         <v>118516</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -2851,13 +2836,13 @@
         <v>87698</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -2866,13 +2851,13 @@
         <v>206215</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2872,13 @@
         <v>55561</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -2902,13 +2887,13 @@
         <v>54858</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M27" s="7">
         <v>146</v>
@@ -2917,13 +2902,13 @@
         <v>110419</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2923,13 @@
         <v>90439</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>106</v>
@@ -2953,13 +2938,13 @@
         <v>67379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -2968,13 +2953,13 @@
         <v>157818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2974,13 @@
         <v>59707</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3004,13 +2989,13 @@
         <v>72431</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>158</v>
@@ -3019,19 +3004,19 @@
         <v>132138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -3040,13 +3025,13 @@
         <v>32738</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3055,13 +3040,13 @@
         <v>50366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -3070,13 +3055,13 @@
         <v>83105</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3076,13 @@
         <v>577963</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>711</v>
@@ -3106,13 +3091,13 @@
         <v>466281</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>1234</v>
@@ -3121,18 +3106,18 @@
         <v>1044244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3144,13 +3129,13 @@
         <v>98269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>91</v>
@@ -3159,13 +3144,13 @@
         <v>50588</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>202</v>
@@ -3174,13 +3159,13 @@
         <v>148857</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3180,13 @@
         <v>64046</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -3210,13 +3195,13 @@
         <v>45624</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M33" s="7">
         <v>153</v>
@@ -3225,13 +3210,13 @@
         <v>109671</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3231,13 @@
         <v>35558</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>49</v>
@@ -3261,13 +3246,13 @@
         <v>27100</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -3276,13 +3261,13 @@
         <v>62658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3282,13 @@
         <v>52650</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3312,13 +3297,13 @@
         <v>41256</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>128</v>
@@ -3327,13 +3312,13 @@
         <v>93906</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3333,13 @@
         <v>48234</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -3363,13 +3348,13 @@
         <v>33978</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -3378,19 +3363,19 @@
         <v>82212</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>23</v>
@@ -3399,13 +3384,13 @@
         <v>22135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -3414,13 +3399,13 @@
         <v>26595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>66</v>
@@ -3429,13 +3414,13 @@
         <v>48730</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3435,13 @@
         <v>320891</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7">
         <v>387</v>
@@ -3465,13 +3450,13 @@
         <v>225141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7">
         <v>744</v>
@@ -3480,18 +3465,18 @@
         <v>546032</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3503,13 +3488,13 @@
         <v>10027</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>12</v>
@@ -3518,13 +3503,13 @@
         <v>6254</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M39" s="7">
         <v>26</v>
@@ -3533,13 +3518,13 @@
         <v>16281</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3539,13 @@
         <v>3351</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -3569,13 +3554,13 @@
         <v>4080</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -3584,13 +3569,13 @@
         <v>7431</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3590,13 @@
         <v>2482</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3620,13 +3605,13 @@
         <v>711</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3635,13 +3620,13 @@
         <v>3193</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3641,13 @@
         <v>3173</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3671,13 +3656,13 @@
         <v>1135</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -3686,13 +3671,13 @@
         <v>4308</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -3722,13 +3707,13 @@
         <v>2319</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3737,19 +3722,19 @@
         <v>2319</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
@@ -3758,13 +3743,13 @@
         <v>740</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -3773,13 +3758,13 @@
         <v>3918</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -3788,13 +3773,13 @@
         <v>4659</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3794,13 @@
         <v>19773</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
@@ -3824,13 +3809,13 @@
         <v>18418</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="7">
         <v>65</v>
@@ -3839,13 +3824,13 @@
         <v>38191</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3847,13 @@
         <v>607343</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H46" s="7">
         <v>543</v>
@@ -3877,13 +3862,13 @@
         <v>420735</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M46" s="7">
         <v>1071</v>
@@ -3892,13 +3877,13 @@
         <v>1028078</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3898,13 @@
         <v>341176</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H47" s="7">
         <v>423</v>
@@ -3928,13 +3913,13 @@
         <v>274469</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M47" s="7">
         <v>759</v>
@@ -3943,13 +3928,13 @@
         <v>615644</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3949,13 @@
         <v>208300</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="H48" s="7">
         <v>243</v>
@@ -3979,13 +3964,13 @@
         <v>171741</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="M48" s="7">
         <v>454</v>
@@ -3994,13 +3979,13 @@
         <v>380041</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4000,13 @@
         <v>321672</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="H49" s="7">
         <v>319</v>
@@ -4030,13 +4015,13 @@
         <v>237070</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M49" s="7">
         <v>608</v>
@@ -4045,13 +4030,13 @@
         <v>558742</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4051,13 @@
         <v>251955</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="H50" s="7">
         <v>314</v>
@@ -4081,13 +4066,13 @@
         <v>249187</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M50" s="7">
         <v>526</v>
@@ -4096,19 +4081,19 @@
         <v>501143</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="7">
         <v>100</v>
@@ -4117,13 +4102,13 @@
         <v>108068</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H51" s="7">
         <v>193</v>
@@ -4132,13 +4117,13 @@
         <v>149685</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="M51" s="7">
         <v>293</v>
@@ -4147,13 +4132,13 @@
         <v>257753</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4153,13 @@
         <v>1838515</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H52" s="7">
         <v>2035</v>
@@ -4183,13 +4168,13 @@
         <v>1502886</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M52" s="7">
         <v>3711</v>
@@ -4198,18 +4183,18 @@
         <v>3341402</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C79575-0DB7-4245-9DDE-4C1D5316892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C300225B-0A94-4FB9-A033-6B7D1D4CE979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2920EF04-2E3D-4F59-99B4-FD9F2EAEA96E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A68FC78-65F7-48EF-ADFE-3B17C90890CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="377">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -65,1096 +65,1105 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>12,14%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1569,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E83AC-E662-432F-934F-73A6770A9B4B}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4987D400-9ED4-47C9-B41F-7D0068FDDAE0}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1690,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>23248</v>
+        <v>23593</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1705,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>30739</v>
+        <v>28341</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1720,7 +1729,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>53987</v>
+        <v>51934</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1741,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>25002</v>
+        <v>28222</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1756,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>9224</v>
+        <v>7984</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1771,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>34225</v>
+        <v>36206</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1792,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6017</v>
+        <v>5243</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1807,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>17391</v>
+        <v>14399</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1822,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>23407</v>
+        <v>19641</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1843,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>13274</v>
+        <v>12425</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1858,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>16993</v>
+        <v>14807</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1873,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>30267</v>
+        <v>27232</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1894,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>19726</v>
+        <v>19374</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1909,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>12322</v>
+        <v>11025</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1924,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>32048</v>
+        <v>30399</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1945,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1679</v>
+        <v>1759</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1960,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>4983</v>
+        <v>4683</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1975,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>6662</v>
+        <v>6442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1996,7 +2005,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -2011,7 +2020,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -2026,7 +2035,7 @@
         <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>180597</v>
+        <v>171855</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -2049,7 +2058,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>106024</v>
+        <v>109732</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -2064,7 +2073,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>109924</v>
+        <v>159535</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -2079,7 +2088,7 @@
         <v>163</v>
       </c>
       <c r="N11" s="7">
-        <v>215948</v>
+        <v>269268</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -2100,7 +2109,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>58131</v>
+        <v>56074</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -2115,31 +2124,31 @@
         <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>62347</v>
+        <v>55911</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
       </c>
       <c r="N12" s="7">
-        <v>120477</v>
+        <v>111985</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,46 +2160,46 @@
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>39372</v>
+        <v>38620</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>28853</v>
+        <v>25159</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>68224</v>
+        <v>63779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,46 +2211,46 @@
         <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>68596</v>
+        <v>66798</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>47570</v>
+        <v>43466</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>116166</v>
+        <v>110263</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2262,46 @@
         <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>61869</v>
+        <v>59319</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>54101</v>
+        <v>48836</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
       </c>
       <c r="N15" s="7">
-        <v>115970</v>
+        <v>108154</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,46 +2313,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>20480</v>
+        <v>19801</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>22465</v>
+        <v>19847</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>42946</v>
+        <v>39647</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2364,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -2370,7 +2379,7 @@
         <v>299</v>
       </c>
       <c r="I17" s="7">
-        <v>325259</v>
+        <v>352753</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -2385,7 +2394,7 @@
         <v>549</v>
       </c>
       <c r="N17" s="7">
-        <v>679731</v>
+        <v>703096</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -2399,7 +2408,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2408,46 +2417,46 @@
         <v>146</v>
       </c>
       <c r="D18" s="7">
-        <v>148774</v>
+        <v>149179</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>136</v>
       </c>
       <c r="I18" s="7">
-        <v>89682</v>
+        <v>86323</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>282</v>
       </c>
       <c r="N18" s="7">
-        <v>238457</v>
+        <v>235503</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,46 +2468,46 @@
         <v>79</v>
       </c>
       <c r="D19" s="7">
-        <v>72130</v>
+        <v>68700</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
       </c>
       <c r="I19" s="7">
-        <v>65495</v>
+        <v>60794</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
       </c>
       <c r="N19" s="7">
-        <v>137625</v>
+        <v>129494</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,46 +2519,46 @@
         <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>69311</v>
+        <v>64322</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>42829</v>
+        <v>39174</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
       </c>
       <c r="N20" s="7">
-        <v>112139</v>
+        <v>103496</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,46 +2570,46 @@
         <v>85</v>
       </c>
       <c r="D21" s="7">
-        <v>93540</v>
+        <v>87932</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
       </c>
       <c r="I21" s="7">
-        <v>62737</v>
+        <v>58194</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
       </c>
       <c r="N21" s="7">
-        <v>156277</v>
+        <v>146125</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,46 +2621,46 @@
         <v>58</v>
       </c>
       <c r="D22" s="7">
-        <v>62419</v>
+        <v>59403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
       </c>
       <c r="I22" s="7">
-        <v>74036</v>
+        <v>68118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
       </c>
       <c r="N22" s="7">
-        <v>136456</v>
+        <v>127521</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,46 +2672,46 @@
         <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>30295</v>
+        <v>29175</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
       </c>
       <c r="I23" s="7">
-        <v>41357</v>
+        <v>37921</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
       </c>
       <c r="N23" s="7">
-        <v>71652</v>
+        <v>67096</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,7 +2723,7 @@
         <v>470</v>
       </c>
       <c r="D24" s="7">
-        <v>476469</v>
+        <v>458711</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2729,7 +2738,7 @@
         <v>546</v>
       </c>
       <c r="I24" s="7">
-        <v>376136</v>
+        <v>350523</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2744,7 +2753,7 @@
         <v>1016</v>
       </c>
       <c r="N24" s="7">
-        <v>852606</v>
+        <v>809235</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2758,7 +2767,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2767,28 +2776,28 @@
         <v>171</v>
       </c>
       <c r="D25" s="7">
-        <v>221001</v>
+        <v>410646</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
       </c>
       <c r="I25" s="7">
-        <v>133548</v>
+        <v>150427</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>183</v>
@@ -2797,7 +2806,7 @@
         <v>366</v>
       </c>
       <c r="N25" s="7">
-        <v>354549</v>
+        <v>561073</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>184</v>
@@ -2818,7 +2827,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>118516</v>
+        <v>114379</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>187</v>
@@ -2833,7 +2842,7 @@
         <v>155</v>
       </c>
       <c r="I26" s="7">
-        <v>87698</v>
+        <v>80800</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>190</v>
@@ -2848,7 +2857,7 @@
         <v>278</v>
       </c>
       <c r="N26" s="7">
-        <v>206215</v>
+        <v>195179</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>193</v>
@@ -2869,7 +2878,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="7">
-        <v>55561</v>
+        <v>51606</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>196</v>
@@ -2884,10 +2893,10 @@
         <v>87</v>
       </c>
       <c r="I27" s="7">
-        <v>54858</v>
+        <v>49913</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>199</v>
@@ -2899,16 +2908,16 @@
         <v>146</v>
       </c>
       <c r="N27" s="7">
-        <v>110419</v>
+        <v>101519</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,46 +2929,46 @@
         <v>87</v>
       </c>
       <c r="D28" s="7">
-        <v>90439</v>
+        <v>85106</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>106</v>
       </c>
       <c r="I28" s="7">
-        <v>67379</v>
+        <v>61840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
       </c>
       <c r="N28" s="7">
-        <v>157818</v>
+        <v>146945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,46 +2980,46 @@
         <v>54</v>
       </c>
       <c r="D29" s="7">
-        <v>59707</v>
+        <v>55709</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
       </c>
       <c r="I29" s="7">
-        <v>72431</v>
+        <v>65465</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>158</v>
       </c>
       <c r="N29" s="7">
-        <v>132138</v>
+        <v>121174</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3031,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>32738</v>
+        <v>30978</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>221</v>
@@ -3037,7 +3046,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="7">
-        <v>50366</v>
+        <v>45060</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>222</v>
@@ -3052,7 +3061,7 @@
         <v>93</v>
       </c>
       <c r="N30" s="7">
-        <v>83105</v>
+        <v>76039</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>225</v>
@@ -3073,7 +3082,7 @@
         <v>523</v>
       </c>
       <c r="D31" s="7">
-        <v>577963</v>
+        <v>748424</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -3088,7 +3097,7 @@
         <v>711</v>
       </c>
       <c r="I31" s="7">
-        <v>466281</v>
+        <v>453505</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -3103,7 +3112,7 @@
         <v>1234</v>
       </c>
       <c r="N31" s="7">
-        <v>1044244</v>
+        <v>1201929</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -3126,7 +3135,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="7">
-        <v>98269</v>
+        <v>94991</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>229</v>
@@ -3141,7 +3150,7 @@
         <v>91</v>
       </c>
       <c r="I32" s="7">
-        <v>50588</v>
+        <v>48008</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>232</v>
@@ -3156,16 +3165,16 @@
         <v>202</v>
       </c>
       <c r="N32" s="7">
-        <v>148857</v>
+        <v>142999</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,46 +3186,46 @@
         <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>64046</v>
+        <v>59702</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
       </c>
       <c r="I33" s="7">
-        <v>45624</v>
+        <v>41287</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>153</v>
       </c>
       <c r="N33" s="7">
-        <v>109671</v>
+        <v>100989</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,46 +3237,46 @@
         <v>41</v>
       </c>
       <c r="D34" s="7">
-        <v>35558</v>
+        <v>32041</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>49</v>
       </c>
       <c r="I34" s="7">
-        <v>27100</v>
+        <v>24651</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
       </c>
       <c r="N34" s="7">
-        <v>62658</v>
+        <v>56692</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3288,13 @@
         <v>60</v>
       </c>
       <c r="D35" s="7">
-        <v>52650</v>
+        <v>47755</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>255</v>
@@ -3294,31 +3303,31 @@
         <v>68</v>
       </c>
       <c r="I35" s="7">
-        <v>41256</v>
+        <v>37756</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>128</v>
       </c>
       <c r="N35" s="7">
-        <v>93906</v>
+        <v>85511</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,46 +3339,46 @@
         <v>52</v>
       </c>
       <c r="D36" s="7">
-        <v>48234</v>
+        <v>45012</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
       </c>
       <c r="I36" s="7">
-        <v>33978</v>
+        <v>30794</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
       </c>
       <c r="N36" s="7">
-        <v>82212</v>
+        <v>75806</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,10 +3390,10 @@
         <v>23</v>
       </c>
       <c r="D37" s="7">
-        <v>22135</v>
+        <v>20803</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>270</v>
@@ -3396,31 +3405,31 @@
         <v>43</v>
       </c>
       <c r="I37" s="7">
-        <v>26595</v>
+        <v>24643</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>66</v>
       </c>
       <c r="N37" s="7">
-        <v>48730</v>
+        <v>45446</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3441,7 @@
         <v>357</v>
       </c>
       <c r="D38" s="7">
-        <v>320891</v>
+        <v>300304</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>70</v>
@@ -3447,7 +3456,7 @@
         <v>387</v>
       </c>
       <c r="I38" s="7">
-        <v>225141</v>
+        <v>207139</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>70</v>
@@ -3462,7 +3471,7 @@
         <v>744</v>
       </c>
       <c r="N38" s="7">
-        <v>546032</v>
+        <v>507443</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>70</v>
@@ -3476,55 +3485,55 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7">
-        <v>10027</v>
+        <v>7926</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6254</v>
+        <v>5922</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7">
+        <v>24</v>
+      </c>
+      <c r="N39" s="7">
+        <v>13848</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M39" s="7">
-        <v>26</v>
-      </c>
-      <c r="N39" s="7">
-        <v>16281</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,46 +3545,46 @@
         <v>6</v>
       </c>
       <c r="D40" s="7">
-        <v>3351</v>
+        <v>3141</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
       </c>
       <c r="I40" s="7">
-        <v>4080</v>
+        <v>3793</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
       </c>
       <c r="N40" s="7">
-        <v>7431</v>
+        <v>6934</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,10 +3596,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>2482</v>
+        <v>2276</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>297</v>
@@ -3602,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>711</v>
+        <v>655</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>299</v>
@@ -3617,16 +3626,16 @@
         <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>3193</v>
+        <v>2931</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>301</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,46 +3647,46 @@
         <v>5</v>
       </c>
       <c r="D42" s="7">
-        <v>3173</v>
+        <v>2965</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="7">
-        <v>1135</v>
+        <v>1008</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
       </c>
       <c r="N42" s="7">
-        <v>4308</v>
+        <v>3974</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,40 +3704,40 @@
         <v>62</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>2319</v>
+        <v>2158</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>2319</v>
+        <v>2158</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,46 +3749,46 @@
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
       </c>
       <c r="I44" s="7">
-        <v>3918</v>
+        <v>3650</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
       </c>
       <c r="N44" s="7">
-        <v>4659</v>
+        <v>4285</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,10 +3797,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>70</v>
@@ -3806,7 +3815,7 @@
         <v>36</v>
       </c>
       <c r="I45" s="7">
-        <v>18418</v>
+        <v>17186</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>70</v>
@@ -3818,10 +3827,10 @@
         <v>70</v>
       </c>
       <c r="M45" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N45" s="7">
-        <v>38191</v>
+        <v>34129</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>70</v>
@@ -3835,55 +3844,53 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>528</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>607343</v>
+        <v>1598</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H46" s="7">
-        <v>543</v>
-      </c>
-      <c r="I46" s="7">
-        <v>420735</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
-        <v>1071</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1028078</v>
+        <v>1598</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>334</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,49 +3899,47 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>341176</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>335</v>
+        <v>62</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
-        <v>423</v>
-      </c>
-      <c r="I47" s="7">
-        <v>274469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>615644</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>341</v>
+        <v>62</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,49 +3948,47 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>208300</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H48" s="7">
-        <v>243</v>
-      </c>
-      <c r="I48" s="7">
-        <v>171741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="M48" s="7">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>380041</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>348</v>
+        <v>62</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,49 +3997,47 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>321672</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="H49" s="7">
-        <v>319</v>
-      </c>
-      <c r="I49" s="7">
-        <v>237070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M49" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>558742</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,49 +4046,47 @@
         <v>50</v>
       </c>
       <c r="C50" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>251955</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>358</v>
+        <v>62</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="H50" s="7">
-        <v>314</v>
-      </c>
-      <c r="I50" s="7">
-        <v>249187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M50" s="7">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>501143</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,49 +4095,47 @@
         <v>60</v>
       </c>
       <c r="C51" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>108068</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="H51" s="7">
-        <v>193</v>
-      </c>
-      <c r="I51" s="7">
-        <v>149685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="M51" s="7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>257753</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,63 +4144,421 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>528</v>
+      </c>
+      <c r="D53" s="7">
+        <v>797666</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H53" s="7">
+        <v>543</v>
+      </c>
+      <c r="I53" s="7">
+        <v>478557</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1071</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1276223</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>336</v>
+      </c>
+      <c r="D54" s="7">
+        <v>330218</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" s="7">
+        <v>423</v>
+      </c>
+      <c r="I54" s="7">
+        <v>250568</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M54" s="7">
+        <v>759</v>
+      </c>
+      <c r="N54" s="7">
+        <v>580786</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>211</v>
+      </c>
+      <c r="D55" s="7">
+        <v>194108</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H55" s="7">
+        <v>243</v>
+      </c>
+      <c r="I55" s="7">
+        <v>153950</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M55" s="7">
+        <v>454</v>
+      </c>
+      <c r="N55" s="7">
+        <v>348058</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>289</v>
+      </c>
+      <c r="D56" s="7">
+        <v>302981</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" s="7">
+        <v>319</v>
+      </c>
+      <c r="I56" s="7">
+        <v>217070</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M56" s="7">
+        <v>608</v>
+      </c>
+      <c r="N56" s="7">
+        <v>520050</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="7">
+        <v>212</v>
+      </c>
+      <c r="D57" s="7">
+        <v>238817</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H57" s="7">
+        <v>314</v>
+      </c>
+      <c r="I57" s="7">
+        <v>226395</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M57" s="7">
+        <v>526</v>
+      </c>
+      <c r="N57" s="7">
+        <v>465212</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="7">
+        <v>100</v>
+      </c>
+      <c r="D58" s="7">
+        <v>103150</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" s="7">
+        <v>193</v>
+      </c>
+      <c r="I58" s="7">
+        <v>135805</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M58" s="7">
+        <v>293</v>
+      </c>
+      <c r="N58" s="7">
+        <v>238954</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1676</v>
       </c>
-      <c r="D52" s="7">
-        <v>1838515</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="D59" s="7">
+        <v>1966940</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="7">
         <v>2035</v>
       </c>
-      <c r="I52" s="7">
-        <v>1502886</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>1462345</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M59" s="7">
         <v>3711</v>
       </c>
-      <c r="N52" s="7">
-        <v>3341402</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>373</v>
+      <c r="N59" s="7">
+        <v>3429285</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
